--- a/Santa Anita/data/dataMunicipalidades.xlsx
+++ b/Santa Anita/data/dataMunicipalidades.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/Documents/R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/Documents/GitHub/Semilla/Santa Anita/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1524A3CD-D4FD-8E4C-9079-2D32EC7BE61D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3167C006-3AF7-D143-AA63-C187AA4D1C0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="1000" windowWidth="27640" windowHeight="16540" activeTab="2" xr2:uid="{BC9ADD7B-6904-2B4A-BFA5-CD24AC9DB010}"/>
   </bookViews>
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="264">
   <si>
     <t>Las celdas en blanco deberán llenarse con la URL (http://www.munisanmiguel.gob.pe/) de la página del ayuntamiento donde se observó el cumplimiento de los requisitos del nivel. Esta URL será utilizada por el docente para verificar la fiabilidad de los datos recopilados. Las celdas sombreadas en azul se llenan automáticamente.</t>
   </si>
@@ -906,12 +906,6 @@
   </si>
   <si>
     <t>https://www.munipuentepiedra.gob.pe/index.php?option=com_content&amp;view=article&amp;id=45</t>
-  </si>
-  <si>
-    <t>https://www.munipuentepiedra.gob.pe/</t>
-  </si>
-  <si>
-    <t>http://www.transparencia.gob.pe/enlaces/pte_transparencia_enlaces.aspx?id_entidad=10072&amp;id_tema=28&amp;ver=D#.W7Ql2mhKjtQ</t>
   </si>
   <si>
     <t>http://munibrena.gob.pe/consultas/contacto.html</t>
@@ -2845,7 +2839,7 @@
         <v>70</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="5">
@@ -3103,7 +3097,7 @@
         <v>39</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="5">
@@ -3377,7 +3371,7 @@
         <v>59</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="5">
@@ -3523,7 +3517,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -3536,7 +3530,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -3549,13 +3543,13 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
@@ -3566,16 +3560,16 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="E46" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="5">
@@ -7412,7 +7406,7 @@
         <v>Pucusana</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="6"/>
@@ -7453,13 +7447,13 @@
         <v>114</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
@@ -7493,7 +7487,7 @@
         <v>118</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="6"/>
@@ -7513,7 +7507,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
@@ -7559,7 +7553,7 @@
         <v>121</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>122</v>
@@ -7635,7 +7629,7 @@
         <v>Magdalena del Mar</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="16"/>
@@ -7696,7 +7690,7 @@
         <v>139</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
@@ -7725,10 +7719,10 @@
         <v>San Luis</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="40"/>
@@ -7743,16 +7737,16 @@
         <v>El Agustino</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>140</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
@@ -7817,7 +7811,7 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="5">
@@ -7834,7 +7828,7 @@
         <v>144</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -7849,7 +7843,7 @@
         <v>Punta Negra</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -7888,7 +7882,7 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G31" s="5">
         <v>4</v>
@@ -7971,7 +7965,7 @@
         <v>154</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -8004,14 +7998,14 @@
         <v>Los Olivos</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G38" s="5">
         <v>4</v>
@@ -8029,7 +8023,7 @@
         <v>158</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>159</v>
@@ -8081,14 +8075,14 @@
         <v>San Martin de Porres</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G42" s="5">
         <v>4</v>
@@ -8096,7 +8090,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -8109,7 +8103,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
@@ -8122,15 +8116,15 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="30"/>
       <c r="F45" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G45" s="5">
         <v>4</v>
@@ -8138,17 +8132,17 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G46" s="5">
         <v>4</v>
@@ -11938,8 +11932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F348B50-557E-8940-AF4B-ACA1EFCC0BFE}">
   <dimension ref="B2:G316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12139,7 +12133,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
@@ -12288,12 +12282,12 @@
         <v>San Luis</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
       <c r="F22" s="36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
@@ -12325,7 +12319,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
@@ -12359,7 +12353,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G26" s="5">
         <f>COUNTA(C26:F26)</f>
@@ -12409,7 +12403,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="1"/>
@@ -12427,7 +12421,7 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="1"/>
@@ -12479,7 +12473,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="1"/>
@@ -12495,7 +12489,7 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="1"/>
@@ -12513,7 +12507,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="1"/>
@@ -12580,12 +12574,12 @@
         <v>Santiago de Surco</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" si="1"/>
@@ -12600,18 +12594,14 @@
       <c r="C40" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>206</v>
-      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
@@ -12620,12 +12610,12 @@
         <v>Breña</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="1"/>
@@ -12638,7 +12628,7 @@
         <v>San Martin de Porres</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="6"/>
@@ -12652,7 +12642,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -12664,7 +12654,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
@@ -12677,13 +12667,13 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="17"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G45" s="5">
         <f t="shared" si="1"/>
@@ -12692,13 +12682,13 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" si="1"/>
@@ -16478,11 +16468,11 @@
       </c>
       <c r="D316" s="1">
         <f t="shared" ref="D316:F316" si="6">COUNTA(D8:D315)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316" s="1">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F316" s="1">
         <f t="shared" si="6"/>
